--- a/biology/Médecine/Ligament_de_la_patella/Ligament_de_la_patella.xlsx
+++ b/biology/Médecine/Ligament_de_la_patella/Ligament_de_la_patella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament de la patella (ou ligament rotulien ou ligament antérieur du genou ou tendon rotulien ou ligament patellaire)  est un ligament plat et solide du membre inférieur qui relie la patella au tibia.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament de la patella prend naissance à l'apex de la patella et se termine sur la tubérosité du tibia. Sa longueur se situe entre 3 et 6 cm sur 3 cm de largeur. Son épaisseur est en moyenne de 7 mm.
 Ses fibres superficielles passent devant la patella et sont en continuité avec les fibres superficielles du tendon quadricipital issues du muscle droit fémoral.
@@ -544,7 +558,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament de la patella permet la transmission au tibia de l'action exercée par le muscle muscle quadriceps fémoral sur la base de la patella. 
 </t>
@@ -575,7 +591,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament de la patella peut être arraché ou déchiré lors d'un traumatisme.
 Il peut être utilisé comme source pour la réparation d'autres ligaments, en particulier pour une reconstruction du ligament croisé antérieur.
